--- a/excel/Bike_Sales_Project.xlsx
+++ b/excel/Bike_Sales_Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mallikarjuna\DSProjects_Temp\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mallikarjuna\Data_Science\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47152524-7CF6-4FDA-AC02-16855F2AE9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8A02E-2DF9-4BDC-B1B7-CB86799FB646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -37,15 +37,6 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -200,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -700,15 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,61 +748,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -847,7 +783,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1541,7 +1477,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2172,7 +2108,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2773,7 +2709,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3691,7 +3627,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4576,7 +4512,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike_Sales_Project.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8964,8 +8900,8 @@
           <a:chExt cx="1828800" cy="3855720"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="7" name="Marital Status">
@@ -8988,7 +8924,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -9027,8 +8963,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="8" name="Education">
@@ -9051,7 +8987,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -9090,8 +9026,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="9" name="Region">
@@ -9114,7 +9050,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -9180,7 +9116,7 @@
         <s v="Male"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Income" numFmtId="167">
+    <cacheField name="Income" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -25255,7 +25191,158 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B716C57C-B990-4EAC-8669-16C34606FBC6}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CDDFE87-BCC4-4A51-BD19-36D6882BB856}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B716C57C-B990-4EAC-8669-16C34606FBC6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A36:D41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25267,7 +25354,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -25407,8 +25494,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D109A0A9-9804-48BE-A088-9F5932CABF8D}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D109A0A9-9804-48BE-A088-9F5932CABF8D}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A20:D27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25420,7 +25507,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -25504,157 +25591,6 @@
   <dataFields count="1">
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CDDFE87-BCC4-4A51-BD19-36D6882BB856}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
   <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -71186,13 +71122,13 @@
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>51848.73949579832</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>52900.763358778626</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>52400</v>
       </c>
     </row>
@@ -71200,13 +71136,13 @@
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>50107.526881720427</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>58907.563025210082</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>55047.169811320753</v>
       </c>
     </row>
@@ -71214,13 +71150,13 @@
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>51084.905660377357</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>55760</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>53614.718614718615</v>
       </c>
     </row>
@@ -71250,13 +71186,13 @@
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>59</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>102</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>161</v>
       </c>
     </row>
@@ -71264,13 +71200,13 @@
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>42</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>39</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>81</v>
       </c>
     </row>
@@ -71278,13 +71214,13 @@
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>30</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>51</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>81</v>
       </c>
     </row>
@@ -71292,13 +71228,13 @@
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>53</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>38</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>91</v>
       </c>
     </row>
@@ -71306,13 +71242,13 @@
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>20</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>48</v>
       </c>
     </row>
@@ -71320,13 +71256,13 @@
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>212</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>250</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>462</v>
       </c>
     </row>
@@ -71356,13 +71292,13 @@
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>47</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>25</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>72</v>
       </c>
     </row>
@@ -71370,13 +71306,13 @@
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>131</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>198</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>329</v>
       </c>
     </row>
@@ -71384,13 +71320,13 @@
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>34</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>27</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <v>61</v>
       </c>
     </row>
@@ -71398,13 +71334,13 @@
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>212</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>250</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>462</v>
       </c>
     </row>
@@ -71419,7 +71355,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q4"/>
+      <selection activeCell="S4" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -71429,82 +71365,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
